--- a/BackTest/2020-01-13 BackTest TRX.xlsx
+++ b/BackTest/2020-01-13 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5423797.539242229</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5423797.539242229</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5433797.539242229</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>5507592.02254223</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5566887.778242229</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>5570408.30764223</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6718760.18944223</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5423494.705742231</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5408307.29364223</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5417141.88254223</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5615428.26614223</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5615609.403142231</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5615609.403142231</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5615428.26614223</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5615428.26614223</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5478889.34184223</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5478889.34184223</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5472179.34184223</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5674560.85004223</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5651802.30474223</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5658742.30474223</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5321945.12334223</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5321945.12334223</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5431554.81554223</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5421345.78764223</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5195123.509442231</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>5193108.949442231</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4607601.146042231</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4616396.518642232</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4630785.942290472</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>4629079.942290472</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>4626282.323190472</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>4752836.075590472</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>4752836.075590472</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>4752836.075590472</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>4434413.735690471</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4618730.780481511</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4618730.780481511</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4618730.780481511</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4618530.780481511</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4668530.780481511</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4600530.780481511</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4609098.895181511</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4612132.87568151</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4651163.10748151</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>4923266.62308151</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>4923266.62308151</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3410378.46548151</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3109461.17868151</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3109461.17868151</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2934630.96968151</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2921876.19508151</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2921876.19508151</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2960840.65748151</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>3047306.07618151</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>2749630.51132382</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>2586543.613923821</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -7216,14 +7216,10 @@
         <v>-784955.7869287792</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="J207" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7256,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7546,17 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>16.38</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7585,17 @@
         <v>-1759811.161728779</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>16.38</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7628,15 +7624,17 @@
         <v>-1729141.161728779</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>16.36</v>
       </c>
-      <c r="J219" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7665,15 +7663,15 @@
         <v>-1729141.161728779</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>16.36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7704,15 +7702,15 @@
         <v>-1701337.948728779</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>16.36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7743,11 +7741,17 @@
         <v>-1731337.948728779</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +7780,17 @@
         <v>-1731337.948728779</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7809,11 +7819,17 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7842,11 +7858,17 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +7897,17 @@
         <v>-1706063.050228779</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7912,7 +7940,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +7973,17 @@
         <v>-1679128.818488009</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +8012,17 @@
         <v>-1681774.748888009</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +8051,17 @@
         <v>-1703572.024288009</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +8090,17 @@
         <v>-1703572.024288009</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8073,11 +8129,17 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8106,7 +8168,7 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>16.42</v>
@@ -8114,7 +8176,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8145,9 +8207,11 @@
         <v>-1977719.565988009</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8182,7 +8246,7 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>16.41</v>
@@ -8221,7 +8285,7 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>16.43</v>
@@ -8260,7 +8324,7 @@
         <v>-1797024.525288009</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>16.43</v>
@@ -8299,7 +8363,7 @@
         <v>-1794349.338888009</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>16.44</v>
@@ -8338,7 +8402,7 @@
         <v>-1694349.338888009</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>16.48</v>
@@ -8377,9 +8441,11 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8414,9 +8480,11 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8451,9 +8519,11 @@
         <v>-1695321.314188009</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8488,9 +8558,11 @@
         <v>-1227034.322190229</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8784,11 +8856,9 @@
         <v>-77252.06789022898</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8823,11 +8893,9 @@
         <v>-77252.06789022898</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8862,11 +8930,9 @@
         <v>452684.6034097711</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -8901,11 +8967,9 @@
         <v>427363.416609771</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>16.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9199,7 +9263,7 @@
         <v>320043.677032481</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>16.5</v>
@@ -9238,11 +9302,9 @@
         <v>319508.677032481</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>16.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9277,11 +9339,9 @@
         <v>319306.431111031</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9316,11 +9376,9 @@
         <v>525333.659111031</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9355,11 +9413,9 @@
         <v>525333.659111031</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>16.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10245,11 +10301,9 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10284,11 +10338,9 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10323,11 +10375,9 @@
         <v>-1105576.083088969</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10917,11 +10967,9 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11437,9 +11485,11 @@
         <v>-575577.3727889692</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11474,9 +11524,11 @@
         <v>-670039.3060889692</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11511,9 +11563,11 @@
         <v>-333770.2239237292</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11548,9 +11602,11 @@
         <v>-359057.7344237292</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>16.56</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11585,9 +11641,11 @@
         <v>-232911.6016237292</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11622,9 +11680,11 @@
         <v>-232911.6016237292</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11659,9 +11719,11 @@
         <v>-232731.4021237292</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11770,9 +11832,11 @@
         <v>558227.3372762708</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12103,9 +12167,11 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -12140,9 +12206,11 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -13842,9 +13910,11 @@
         <v>-900750.7129671191</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -14434,16 +14504,18 @@
         <v>2624059.203981811</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
       <c r="M403" t="inlineStr"/>
     </row>
     <row r="404">
@@ -14469,11 +14541,15 @@
         <v>2624059.203981811</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14502,11 +14578,15 @@
         <v>2561041.749981811</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +14615,15 @@
         <v>2364059.203981811</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14568,11 +14652,15 @@
         <v>2393657.521681811</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14601,11 +14689,15 @@
         <v>2315529.523881811</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14638,7 +14730,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14671,7 +14767,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14704,7 +14804,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14737,7 +14841,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14770,7 +14878,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14803,7 +14915,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14836,7 +14952,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14869,7 +14989,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14902,7 +15026,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14931,11 +15059,15 @@
         <v>3189480.96488181</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14964,11 +15096,15 @@
         <v>3141016.91388181</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14997,11 +15133,15 @@
         <v>3141153.95358181</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15030,11 +15170,15 @@
         <v>2556851.035981811</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15063,11 +15207,15 @@
         <v>2556851.035981811</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15096,11 +15244,15 @@
         <v>2556851.035981811</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15129,11 +15281,15 @@
         <v>2556851.035981811</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15162,11 +15318,15 @@
         <v>2786132.933381811</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15199,7 +15359,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15232,7 +15396,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15265,7 +15433,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +15470,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15331,7 +15507,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15364,7 +15544,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15397,7 +15581,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15430,7 +15618,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15463,7 +15655,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15496,7 +15692,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15529,7 +15729,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15558,14 +15762,16 @@
         <v>2818204.548581811</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="inlineStr"/>
     </row>
     <row r="438">
@@ -15624,7 +15830,7 @@
         <v>2816640.130181811</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15657,7 +15863,7 @@
         <v>2877122.770581811</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15690,7 +15896,7 @@
         <v>2882103.290581811</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15723,7 +15929,7 @@
         <v>2876147.369529181</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15756,7 +15962,7 @@
         <v>2876147.369529181</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15789,7 +15995,7 @@
         <v>2875880.283529181</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15822,7 +16028,7 @@
         <v>2876102.254585091</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15855,7 +16061,7 @@
         <v>2876102.254585091</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16152,7 +16358,7 @@
         <v>3223146.614076551</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16746,7 +16952,7 @@
         <v>3533948.838176552</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16779,7 +16985,7 @@
         <v>3533948.838176552</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16812,7 +17018,7 @@
         <v>3534795.445319402</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16845,7 +17051,7 @@
         <v>3502128.685319402</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16878,7 +17084,7 @@
         <v>3502128.685319402</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16944,7 +17150,7 @@
         <v>3483792.673619402</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16977,7 +17183,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17010,7 +17216,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17043,7 +17249,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17208,7 +17414,7 @@
         <v>3776300.048113531</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17241,7 +17447,7 @@
         <v>3776300.048113531</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17274,7 +17480,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17307,7 +17513,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17340,7 +17546,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17373,7 +17579,7 @@
         <v>3715802.726844201</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17406,7 +17612,7 @@
         <v>3715802.726844201</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17439,7 +17645,7 @@
         <v>3712171.074344201</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17472,7 +17678,7 @@
         <v>3722858.689444202</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17505,7 +17711,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17538,7 +17744,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17571,7 +17777,7 @@
         <v>3700812.689444202</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17604,7 +17810,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17637,7 +17843,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17670,7 +17876,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17703,7 +17909,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17736,7 +17942,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17769,7 +17975,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17802,7 +18008,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17835,7 +18041,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17868,7 +18074,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17901,7 +18107,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17934,7 +18140,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17967,7 +18173,7 @@
         <v>3709753.021544202</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18000,7 +18206,7 @@
         <v>3709753.021544202</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18033,7 +18239,7 @@
         <v>3709496.611287792</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18066,7 +18272,7 @@
         <v>3709602.094005312</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18099,7 +18305,7 @@
         <v>3593322.087705312</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18132,7 +18338,7 @@
         <v>3305058.965705312</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18165,7 +18371,7 @@
         <v>3308548.965705312</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18198,7 +18404,7 @@
         <v>3565058.965705312</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18231,7 +18437,7 @@
         <v>3469345.793505312</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18264,7 +18470,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18297,7 +18503,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18330,7 +18536,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18363,7 +18569,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18396,7 +18602,7 @@
         <v>3383448.156520152</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18429,7 +18635,7 @@
         <v>3383481.156534992</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18462,7 +18668,7 @@
         <v>3358481.156534992</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18495,7 +18701,7 @@
         <v>3358481.156534992</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18528,7 +18734,7 @@
         <v>4780597.234834992</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18561,7 +18767,7 @@
         <v>4780597.234834992</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18594,7 +18800,7 @@
         <v>2348405.183234992</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18627,7 +18833,7 @@
         <v>2335471.480834993</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18660,7 +18866,7 @@
         <v>2013285.625434993</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18693,7 +18899,7 @@
         <v>1966722.742034993</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18726,7 +18932,7 @@
         <v>1966755.742034993</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19518,7 +19724,7 @@
         <v>1247274.178725703</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19551,7 +19757,7 @@
         <v>1306354.051725703</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -23280,7 +23486,7 @@
         <v>2026015.994627623</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23313,7 +23519,7 @@
         <v>2026015.994627623</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23346,7 +23552,7 @@
         <v>1819262.658827623</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23379,7 +23585,7 @@
         <v>226163.8008276229</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23412,7 +23618,7 @@
         <v>226163.8008276229</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23445,7 +23651,7 @@
         <v>226163.8008276229</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23478,7 +23684,7 @@
         <v>235983.7776276229</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23511,7 +23717,7 @@
         <v>235983.7776276229</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23544,7 +23750,7 @@
         <v>535311.7824276229</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23577,7 +23783,7 @@
         <v>253755.742427623</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23610,7 +23816,7 @@
         <v>253755.742427623</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23643,7 +23849,7 @@
         <v>107399.644327623</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23676,7 +23882,7 @@
         <v>-468492.763572377</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23709,7 +23915,7 @@
         <v>-468397.085672377</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23742,7 +23948,7 @@
         <v>-468397.085672377</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23775,7 +23981,7 @@
         <v>-1047772.776072377</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24149,6 +24355,6 @@
       <c r="M697" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest TRX.xlsx
+++ b/BackTest/2020-01-13 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>5423797.539242229</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5423797.539242229</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5433797.539242229</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>5507592.02254223</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5566887.778242229</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>5570408.30764223</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6718760.18944223</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5423494.705742231</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5408307.29364223</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5417141.88254223</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5615428.26614223</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5615609.403142231</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5615609.403142231</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5615428.26614223</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5615428.26614223</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5478889.34184223</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5478889.34184223</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5472179.34184223</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5674560.85004223</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5651802.30474223</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5658742.30474223</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>5193108.949442231</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4607601.146042231</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4616396.518642232</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4630785.942290472</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>4629079.942290472</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>4626282.323190472</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>4752836.075590472</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>4752836.075590472</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>4752836.075590472</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4618730.780481511</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4618730.780481511</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4618730.780481511</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4618530.780481511</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4668530.780481511</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4600530.780481511</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4609098.895181511</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4612132.87568151</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4651163.10748151</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>4923266.62308151</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>4923266.62308151</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3410378.46548151</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3109461.17868151</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3109461.17868151</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2934630.96968151</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2921876.19508151</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2921876.19508151</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2960840.65748151</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -7414,11 +7414,17 @@
         <v>-1296241.618228779</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7457,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7490,17 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7529,17 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>16.38</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7554,7 +7576,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7858,11 +7880,9 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7897,11 +7917,9 @@
         <v>-1706063.050228779</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -7973,11 +7991,9 @@
         <v>-1679128.818488009</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8012,11 +8028,9 @@
         <v>-1681774.748888009</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8051,11 +8065,9 @@
         <v>-1703572.024288009</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>16.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8090,11 +8102,9 @@
         <v>-1703572.024288009</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8129,11 +8139,9 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8168,11 +8176,9 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>16.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8207,11 +8213,9 @@
         <v>-1977719.565988009</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>16.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8246,11 +8250,9 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>16.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8285,11 +8287,9 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8363,11 +8363,9 @@
         <v>-1794349.338888009</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>16.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8402,11 +8400,9 @@
         <v>-1694349.338888009</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8441,11 +8437,9 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8480,11 +8474,9 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8519,11 +8511,9 @@
         <v>-1695321.314188009</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8558,11 +8548,9 @@
         <v>-1227034.322190229</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9263,11 +9251,9 @@
         <v>320043.677032481</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9302,18 +9288,16 @@
         <v>319508.677032481</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
@@ -9339,15 +9323,11 @@
         <v>319306.431111031</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9380,11 +9360,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9413,15 +9389,11 @@
         <v>525333.659111031</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9450,15 +9422,11 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9487,15 +9455,11 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9528,11 +9492,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9565,11 +9525,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9602,11 +9558,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9639,11 +9591,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9676,11 +9624,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9713,11 +9657,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9750,11 +9690,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9787,11 +9723,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9824,11 +9756,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9861,11 +9789,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9898,11 +9822,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9935,11 +9855,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9972,11 +9888,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10009,11 +9921,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10046,11 +9954,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10083,11 +9987,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10020,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10157,11 +10053,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10194,11 +10086,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10231,11 +10119,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10268,11 +10152,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10305,11 +10185,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +10218,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10379,11 +10251,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10416,11 +10284,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10453,11 +10317,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10490,11 +10350,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10527,11 +10383,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10564,11 +10416,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10601,11 +10449,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10638,11 +10482,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10675,11 +10515,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10712,11 +10548,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10749,11 +10581,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10786,11 +10614,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10819,15 +10643,11 @@
         <v>-748932.2332889693</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10860,11 +10680,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10893,15 +10709,11 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10930,15 +10742,11 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10971,11 +10779,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11008,11 +10812,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11045,11 +10845,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11082,11 +10878,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11119,11 +10911,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11156,11 +10944,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11193,11 +10977,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11230,11 +11010,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11267,11 +11043,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11304,11 +11076,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11109,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11378,11 +11142,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11411,15 +11171,15 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="J320" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11448,13 +11208,17 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="J321" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11490,10 +11254,12 @@
       <c r="I322" t="n">
         <v>16.59</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L322" t="n">
@@ -11529,12 +11295,10 @@
       <c r="I323" t="n">
         <v>16.58</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11568,10 +11332,12 @@
       <c r="I324" t="n">
         <v>16.54</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -11607,7 +11373,9 @@
       <c r="I325" t="n">
         <v>16.56</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11641,12 +11409,12 @@
         <v>-232911.6016237292</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11680,12 +11448,12 @@
         <v>-232911.6016237292</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
         <v>16.58</v>
       </c>
-      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,12 +11487,12 @@
         <v>-232731.4021237292</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
         <v>16.58</v>
       </c>
-      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11761,7 +11529,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,10 +11565,12 @@
         <v>-232731.4021237292</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,12 +11604,12 @@
         <v>558227.3372762708</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,7 +11646,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11911,7 +11685,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,7 +11724,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11982,17 +11760,19 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>16.58</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1</v>
+        <v>0.9956031363088059</v>
       </c>
       <c r="M335" t="inlineStr"/>
     </row>
@@ -12019,15 +11799,11 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12056,15 +11832,11 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12093,15 +11865,11 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12130,15 +11898,11 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12167,17 +11931,11 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>16.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12206,17 +11964,11 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>16.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12245,15 +11997,11 @@
         <v>-1352519.763488849</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12282,15 +12030,11 @@
         <v>-1922443.393588849</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12323,11 +12067,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12360,11 +12100,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12133,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +12166,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12471,11 +12199,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12508,11 +12232,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12545,11 +12265,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12582,11 +12298,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12619,11 +12331,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12364,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12693,11 +12397,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12726,15 +12426,11 @@
         <v>-1469094.522318189</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12767,11 +12463,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12804,11 +12496,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12841,11 +12529,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12878,11 +12562,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12915,11 +12595,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12952,11 +12628,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12989,11 +12661,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +12694,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +12727,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +12760,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13137,11 +12793,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13174,11 +12826,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13211,11 +12859,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13248,11 +12892,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13285,11 +12925,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13322,11 +12958,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13359,11 +12991,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13396,11 +13024,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13433,11 +13057,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13470,11 +13090,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13507,11 +13123,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13544,11 +13156,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13581,11 +13189,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13222,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13655,11 +13255,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13692,11 +13288,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13729,11 +13321,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13766,11 +13354,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13803,11 +13387,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13840,11 +13420,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13877,11 +13453,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13910,17 +13482,11 @@
         <v>-900750.7129671191</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13953,11 +13519,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13990,11 +13552,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14027,11 +13585,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14064,11 +13618,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14101,11 +13651,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14138,11 +13684,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14175,11 +13717,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +13750,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14249,11 +13783,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14286,11 +13816,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14323,11 +13849,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14360,11 +13882,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14397,11 +13915,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14434,11 +13948,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14471,11 +13981,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14508,11 +14014,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14545,11 +14047,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14582,11 +14080,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14619,11 +14113,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14656,11 +14146,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14693,11 +14179,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14730,11 +14212,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14767,11 +14245,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14804,11 +14278,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14841,11 +14311,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14878,11 +14344,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +14377,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14952,11 +14410,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14989,11 +14443,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15026,11 +14476,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15063,11 +14509,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15100,11 +14542,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15137,11 +14575,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15174,11 +14608,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15211,11 +14641,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15248,11 +14674,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15285,11 +14707,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15322,11 +14740,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15359,11 +14773,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15396,11 +14806,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +14839,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15470,11 +14872,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15507,11 +14905,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15544,11 +14938,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15581,11 +14971,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15618,11 +15004,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +15037,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15692,11 +15070,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15103,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15762,16 +15132,14 @@
         <v>2818204.548581811</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
       <c r="M437" t="inlineStr"/>
     </row>
     <row r="438">
@@ -15830,7 +15198,7 @@
         <v>2816640.130181811</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15863,7 +15231,7 @@
         <v>2877122.770581811</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15896,7 +15264,7 @@
         <v>2882103.290581811</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15929,7 +15297,7 @@
         <v>2876147.369529181</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15962,7 +15330,7 @@
         <v>2876147.369529181</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15995,7 +15363,7 @@
         <v>2875880.283529181</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16028,7 +15396,7 @@
         <v>2876102.254585091</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16061,7 +15429,7 @@
         <v>2876102.254585091</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16358,7 +15726,7 @@
         <v>3223146.614076551</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17216,7 +16584,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17249,7 +16617,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17414,7 +16782,7 @@
         <v>3776300.048113531</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17447,7 +16815,7 @@
         <v>3776300.048113531</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17480,7 +16848,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17513,7 +16881,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17546,7 +16914,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17579,7 +16947,7 @@
         <v>3715802.726844201</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17612,7 +16980,7 @@
         <v>3715802.726844201</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17645,7 +17013,7 @@
         <v>3712171.074344201</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17678,7 +17046,7 @@
         <v>3722858.689444202</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17711,7 +17079,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17744,7 +17112,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17777,7 +17145,7 @@
         <v>3700812.689444202</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17810,7 +17178,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17843,7 +17211,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17876,7 +17244,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17909,7 +17277,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17942,7 +17310,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17975,7 +17343,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18008,7 +17376,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18041,7 +17409,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18074,7 +17442,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18107,7 +17475,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18140,7 +17508,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18173,7 +17541,7 @@
         <v>3709753.021544202</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18206,7 +17574,7 @@
         <v>3709753.021544202</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18239,7 +17607,7 @@
         <v>3709496.611287792</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18272,7 +17640,7 @@
         <v>3709602.094005312</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18305,7 +17673,7 @@
         <v>3593322.087705312</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18338,7 +17706,7 @@
         <v>3305058.965705312</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18371,7 +17739,7 @@
         <v>3308548.965705312</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18404,7 +17772,7 @@
         <v>3565058.965705312</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18437,7 +17805,7 @@
         <v>3469345.793505312</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18470,7 +17838,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18503,7 +17871,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18536,7 +17904,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18569,7 +17937,7 @@
         <v>3474873.648805312</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18602,7 +17970,7 @@
         <v>3383448.156520152</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18635,7 +18003,7 @@
         <v>3383481.156534992</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18668,7 +18036,7 @@
         <v>3358481.156534992</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18701,7 +18069,7 @@
         <v>3358481.156534992</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18734,7 +18102,7 @@
         <v>4780597.234834992</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18767,7 +18135,7 @@
         <v>4780597.234834992</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18800,7 +18168,7 @@
         <v>2348405.183234992</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18833,7 +18201,7 @@
         <v>2335471.480834993</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18866,7 +18234,7 @@
         <v>2013285.625434993</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18899,7 +18267,7 @@
         <v>1966722.742034993</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18932,7 +18300,7 @@
         <v>1966755.742034993</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -21011,7 +20379,7 @@
         <v>760081.939577853</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21110,7 +20478,7 @@
         <v>766963.5091778529</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21143,7 +20511,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21176,7 +20544,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21209,7 +20577,7 @@
         <v>766996.3151778529</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21242,7 +20610,7 @@
         <v>554485.4226778529</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21275,7 +20643,7 @@
         <v>554585.4226778529</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21308,7 +20676,7 @@
         <v>550489.0370778529</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22430,7 +21798,7 @@
         <v>452437.990880983</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22463,7 +21831,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22496,7 +21864,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22529,7 +21897,7 @@
         <v>452520.3226809829</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22562,7 +21930,7 @@
         <v>362160.2585809829</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22595,7 +21963,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22628,7 +21996,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22661,7 +22029,7 @@
         <v>579005.8936809829</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22727,7 +22095,7 @@
         <v>514591.1625809829</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23156,7 +22524,7 @@
         <v>722963.5175809829</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24355,6 +23723,6 @@
       <c r="M697" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest TRX.xlsx
+++ b/BackTest/2020-01-13 BackTest TRX.xlsx
@@ -484,7 +484,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5469311.729942231</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5626309.32064223</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>5709353.06364223</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5699904.35364223</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>5829909.57794223</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5727044.87194223</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5520173.020142229</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5520173.020142229</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6718760.18944223</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6538095.237042231</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>6599102.98434223</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6215137.20644223</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>6213635.535742231</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6215137.20644223</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>6231076.386742231</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>6075529.54914223</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>6075033.949142231</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>6075033.949142231</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>5954854.338142231</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>5231950.626242231</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>4347025.775590471</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>4482473.775590471</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>4482473.775590471</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -7414,17 +7414,11 @@
         <v>-1296241.618228779</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7490,17 +7480,11 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7529,17 +7513,11 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>16.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7568,17 +7546,11 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>16.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7607,17 +7579,11 @@
         <v>-1759811.161728779</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>16.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7646,17 +7612,11 @@
         <v>-1729141.161728779</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>16.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7685,17 +7645,11 @@
         <v>-1729141.161728779</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7724,17 +7678,11 @@
         <v>-1701337.948728779</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7763,17 +7711,11 @@
         <v>-1731337.948728779</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7802,17 +7744,11 @@
         <v>-1731337.948728779</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>16.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7841,17 +7777,11 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>16.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7880,13 +7810,15 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -7917,9 +7849,11 @@
         <v>-1706063.050228779</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8176,9 +8110,11 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8213,9 +8149,11 @@
         <v>-1977719.565988009</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8250,9 +8188,11 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>16.41</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8287,9 +8227,11 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8363,9 +8305,11 @@
         <v>-1794349.338888009</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>16.44</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8400,9 +8344,11 @@
         <v>-1694349.338888009</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8437,9 +8383,11 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8474,9 +8422,11 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8511,9 +8461,11 @@
         <v>-1695321.314188009</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8548,9 +8500,11 @@
         <v>-1227034.322190229</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8585,9 +8539,11 @@
         <v>-1227034.322190229</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8622,9 +8578,11 @@
         <v>-1149962.573590229</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8659,9 +8617,11 @@
         <v>-1325360.180790229</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8770,9 +8730,11 @@
         <v>-30761.25509022898</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8807,9 +8769,11 @@
         <v>-63055.89949022899</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8844,9 +8808,11 @@
         <v>-77252.06789022898</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8881,9 +8847,11 @@
         <v>-77252.06789022898</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8918,9 +8886,11 @@
         <v>452684.6034097711</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -8955,9 +8925,11 @@
         <v>427363.416609771</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>16.56</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -8992,9 +8964,11 @@
         <v>350538.506109771</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9029,9 +9003,11 @@
         <v>450733.5974097711</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9066,9 +9042,11 @@
         <v>305517.798032481</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9103,9 +9081,11 @@
         <v>302574.458032481</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9140,9 +9120,11 @@
         <v>304998.650132481</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9177,9 +9159,11 @@
         <v>246033.204532481</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9214,9 +9198,11 @@
         <v>246033.204532481</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9251,9 +9237,11 @@
         <v>320043.677032481</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9288,16 +9276,20 @@
         <v>319508.677032481</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L263" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
       <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
@@ -9323,11 +9315,17 @@
         <v>319306.431111031</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +9354,17 @@
         <v>525333.659111031</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +9393,17 @@
         <v>525333.659111031</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9432,17 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9455,11 +9471,17 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9488,11 +9510,17 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +9549,17 @@
         <v>-1241689.665088969</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +9592,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9591,7 +9629,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +9662,17 @@
         <v>-1312756.556188969</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9653,11 +9701,17 @@
         <v>-1312756.556188969</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9690,7 +9744,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +9777,17 @@
         <v>-1312756.556188969</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9756,7 +9820,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9789,7 +9857,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9822,7 +9894,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +9931,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +9968,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9921,7 +10005,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +10042,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9987,7 +10079,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10020,7 +10116,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10053,7 +10153,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +10186,17 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10115,11 +10225,17 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10148,11 +10264,17 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10181,11 +10303,17 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +10346,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +10383,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10284,7 +10420,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +10457,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10350,7 +10494,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10383,7 +10531,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +10568,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10449,7 +10605,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +10642,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +10679,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +10716,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +10753,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +10790,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10643,11 +10823,15 @@
         <v>-748932.2332889693</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +10864,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10709,11 +10897,15 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10742,11 +10934,15 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +10975,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +11012,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +11049,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +11086,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10911,7 +11123,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +11160,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10977,7 +11197,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +11234,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11043,7 +11271,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11076,7 +11308,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +11345,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11142,7 +11382,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11171,15 +11415,15 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="J320" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="K320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11208,17 +11452,13 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="J321" t="n">
-        <v>16.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11249,17 +11489,13 @@
         <v>-575577.3727889692</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="J322" t="n">
-        <v>16.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L322" t="n">
@@ -11290,15 +11526,15 @@
         <v>-670039.3060889692</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="J323" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11327,17 +11563,13 @@
         <v>-333770.2239237292</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="J324" t="n">
-        <v>16.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -11368,14 +11600,10 @@
         <v>-359057.7344237292</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="J325" t="n">
-        <v>16.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,9 +11640,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11451,9 +11677,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11490,9 +11714,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,9 +11751,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11565,12 +11785,10 @@
         <v>-232731.4021237292</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11607,9 +11825,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,9 +11862,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11685,9 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11724,9 +11936,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11760,19 +11970,17 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>16.58</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>0.9956031363088059</v>
+        <v>1</v>
       </c>
       <c r="M335" t="inlineStr"/>
     </row>
@@ -11799,11 +12007,15 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11832,11 +12044,15 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11865,11 +12081,15 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11898,11 +12118,15 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11931,11 +12155,15 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11964,11 +12192,15 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11997,11 +12229,15 @@
         <v>-1352519.763488849</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12030,11 +12266,15 @@
         <v>-1922443.393588849</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12067,7 +12307,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12100,7 +12344,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12133,7 +12381,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12166,7 +12418,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12199,7 +12455,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12232,7 +12492,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12265,7 +12529,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12298,7 +12566,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12331,7 +12603,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12364,7 +12640,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12397,7 +12677,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12426,11 +12710,15 @@
         <v>-1469094.522318189</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12463,7 +12751,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12496,7 +12788,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12529,7 +12825,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12562,7 +12862,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12595,7 +12899,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12628,7 +12936,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12661,7 +12973,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12694,7 +13010,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12727,7 +13047,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12760,7 +13084,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12793,7 +13121,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12826,7 +13158,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12859,7 +13195,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12892,7 +13232,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12925,7 +13269,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12958,7 +13306,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12991,7 +13343,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13024,7 +13380,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13057,7 +13417,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13090,7 +13454,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13123,7 +13491,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13156,7 +13528,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13189,7 +13565,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13222,7 +13602,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13255,7 +13639,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13288,7 +13676,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13321,7 +13713,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13354,7 +13750,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13387,7 +13787,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13420,7 +13824,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13453,7 +13861,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13486,7 +13898,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13519,7 +13935,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13552,7 +13972,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13585,7 +14009,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13618,7 +14046,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13651,7 +14083,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13684,7 +14120,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13717,7 +14157,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13750,7 +14194,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13783,7 +14231,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13816,7 +14268,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13849,7 +14305,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13882,7 +14342,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13915,7 +14379,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13948,7 +14416,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13981,7 +14453,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14014,7 +14490,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14047,7 +14527,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14080,7 +14564,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14113,7 +14601,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14146,7 +14638,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14179,7 +14675,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14212,7 +14712,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14245,7 +14749,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14278,7 +14786,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14311,7 +14823,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14344,7 +14860,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14377,7 +14897,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14410,7 +14934,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14443,7 +14971,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14476,7 +15008,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14509,7 +15045,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14542,7 +15082,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14575,7 +15119,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14608,7 +15156,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14641,7 +15193,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14674,7 +15230,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14707,7 +15267,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14740,7 +15304,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +15341,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14806,7 +15378,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14839,7 +15415,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14872,7 +15452,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14905,7 +15489,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14938,7 +15526,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14971,7 +15563,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15004,7 +15600,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15037,7 +15637,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15070,7 +15674,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15103,7 +15711,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15136,7 +15748,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15169,7 +15785,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15202,7 +15822,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15235,7 +15859,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15268,7 +15896,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15301,7 +15933,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15334,7 +15970,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15367,7 +16007,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15400,7 +16044,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15433,7 +16081,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15466,7 +16118,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15499,7 +16155,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15532,7 +16192,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15565,7 +16229,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15598,7 +16266,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15631,7 +16303,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15664,7 +16340,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15697,7 +16377,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15730,7 +16414,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15763,7 +16451,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15796,7 +16488,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15829,7 +16525,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15862,7 +16562,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15895,7 +16599,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15928,7 +16636,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15961,7 +16673,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15994,7 +16710,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16027,7 +16747,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16060,7 +16784,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16093,7 +16821,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16126,7 +16858,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16159,7 +16895,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16192,7 +16932,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16225,7 +16969,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16258,7 +17006,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16291,7 +17043,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16324,7 +17080,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16357,7 +17117,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16390,7 +17154,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16423,7 +17191,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16456,7 +17228,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16489,7 +17265,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16522,7 +17302,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16555,7 +17339,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16584,14 +17372,16 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="inlineStr"/>
     </row>
     <row r="482">
@@ -16617,7 +17407,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16848,7 +17638,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16881,7 +17671,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16914,7 +17704,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16980,7 +17770,7 @@
         <v>3715802.726844201</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17013,7 +17803,7 @@
         <v>3712171.074344201</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17079,7 +17869,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17112,7 +17902,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17145,7 +17935,7 @@
         <v>3700812.689444202</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17211,7 +18001,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17244,7 +18034,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17277,7 +18067,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17310,7 +18100,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17343,7 +18133,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17376,7 +18166,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17409,7 +18199,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17442,7 +18232,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17475,7 +18265,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17508,7 +18298,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20379,7 +21169,7 @@
         <v>760081.939577853</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20478,7 +21268,7 @@
         <v>766963.5091778529</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20511,7 +21301,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20544,7 +21334,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20577,7 +21367,7 @@
         <v>766996.3151778529</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20610,7 +21400,7 @@
         <v>554485.4226778529</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20643,7 +21433,7 @@
         <v>554585.4226778529</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20676,7 +21466,7 @@
         <v>550489.0370778529</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21798,7 +22588,7 @@
         <v>452437.990880983</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21831,7 +22621,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21864,7 +22654,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21897,7 +22687,7 @@
         <v>452520.3226809829</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21930,7 +22720,7 @@
         <v>362160.2585809829</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21963,7 +22753,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21996,7 +22786,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22029,7 +22819,7 @@
         <v>579005.8936809829</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22095,7 +22885,7 @@
         <v>514591.1625809829</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22524,7 +23314,7 @@
         <v>722963.5175809829</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
